--- a/hardware/design/ScopeFace BOM.xlsx
+++ b/hardware/design/ScopeFace BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atlan\OneDrive\Documents\GitHub\digital-stethoscope\hardware\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E11F49-6935-4C19-9B6D-66100A316920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBDE517-FCE0-4CDC-BA95-8419CD46CF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="18264" xr2:uid="{DF6B5F07-35CC-490C-A1FE-65968EF635D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Quantity</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Microphone Evaluation Board</t>
+  </si>
+  <si>
+    <t>Common Anode LED</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86FF30C-2B3E-455E-8F47-15FAD8FC2EEC}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,7 +570,7 @@
         <v>7.99</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D23" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D11" si="0">B3*C3</f>
         <v>7.99</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -679,13 +685,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
-        <f>SUM(D2:D9)</f>
-        <v>89.43</v>
+      <c r="D14" s="3">
+        <f>SUM(D2:D11)</f>
+        <v>94.34</v>
       </c>
     </row>
   </sheetData>
@@ -698,8 +740,10 @@
     <hyperlink ref="E7" r:id="rId6" display="https://www.amazon.com/dp/B0D4JMTFLT?ref=ppx_yo2ov_dt_b_fed_asin_title" xr:uid="{158E3072-770D-4102-A449-1E6AAD901E59}"/>
     <hyperlink ref="E8" r:id="rId7" display="https://www.mcmaster.com/nav/enter.asp?partnum=94180A312" xr:uid="{D4AE9C92-16B5-4A52-A075-D389F055925E}"/>
     <hyperlink ref="E9" r:id="rId8" display="https://www.mcmaster.com/nav/enter.asp?partnum=92010A111" xr:uid="{47B3BF8E-D111-491E-A139-8543B301549C}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://www.digikey.com/en/products/detail/pui-audio-inc/DMM-4026-B-I2S-R/11587483" xr:uid="{E1FC0361-8F16-46BF-9171-CD53FF4A8934}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://www.sparkfun.com/led-rgb-diffused-common-anode.html" xr:uid="{8CD5AC08-F685-489F-834E-28F14019B218}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>